--- a/Gestão do Projeto/Indicadores/IndicadoresPlanoTrabalhoOUTUBRO23.xlsx
+++ b/Gestão do Projeto/Indicadores/IndicadoresPlanoTrabalhoOUTUBRO23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41C3C765-97F4-A94F-981F-6812D0C329AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350E031F-198F-5C40-A7BE-4806FB08A4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="760" windowWidth="26840" windowHeight="17860" xr2:uid="{BBEB64F3-A0FD-8443-B46C-44F3CC52CE04}"/>
   </bookViews>
@@ -368,6 +368,12 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -403,12 +409,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01C209F-BEDB-6A41-9AE1-7109A510D013}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C13"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -819,23 +819,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
         <v>3</v>
@@ -843,30 +843,30 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25"/>
+      <c r="A3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27"/>
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
@@ -876,16 +876,16 @@
       <c r="E3" s="7">
         <v>12</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="9"/>
       <c r="D4" s="7" t="s">
         <v>12</v>
@@ -893,12 +893,12 @@
       <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -1157,11 +1157,11 @@
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="27"/>
+      <c r="B13" s="15"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
